--- a/Layout of Report.xlsx
+++ b/Layout of Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Export-Pokedata-To-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F04EB0B-CCC3-40C8-B653-5CFFF3BA3E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAEC6A9-D4DA-4EE8-A46F-708CE01191BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{CA98834B-DD3D-4A87-8EBF-4385F7D6C6A8}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>Level Up</t>
   </si>
   <si>
-    <t>TM</t>
-  </si>
-  <si>
     <t>TM #</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Level Curve</t>
+  </si>
+  <si>
+    <t>TM/HM</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0294D4B8-C0D7-4C39-998B-03D84907CA86}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -861,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
         <v>32</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
@@ -875,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
         <v>34</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
       </c>
       <c r="D39" t="s">
         <v>30</v>
@@ -889,19 +889,19 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
         <v>36</v>
-      </c>
-      <c r="C40" t="s">
-        <v>37</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
       </c>
       <c r="E40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s">
         <v>38</v>
-      </c>
-      <c r="F40" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -909,19 +909,19 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
       </c>
       <c r="E41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s">
         <v>38</v>
-      </c>
-      <c r="F41" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Layout of Report.xlsx
+++ b/Layout of Report.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Export-Pokedata-To-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAEC6A9-D4DA-4EE8-A46F-708CE01191BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C9B382-BA6C-49D8-948E-8FDB87E10535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{CA98834B-DD3D-4A87-8EBF-4385F7D6C6A8}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{CA98834B-DD3D-4A87-8EBF-4385F7D6C6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="153">
   <si>
     <t>Base Index</t>
   </si>
@@ -149,12 +150,6 @@
     <t>Pokemon</t>
   </si>
   <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Trigger</t>
-  </si>
-  <si>
     <t>Evolve To</t>
   </si>
   <si>
@@ -165,6 +160,342 @@
   </si>
   <si>
     <t>TM/HM</t>
+  </si>
+  <si>
+    <t>Egg Move</t>
+  </si>
+  <si>
+    <t>Full Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up with Friendship",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up at Morning with Friendship",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up at Night with Friendship",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Trade",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Trade with Held Item",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $"Trade for opposite {specieslist[588]}/{specieslist[616]}", // Shelmet&amp;Karrablast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Used Item",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up (Attack &gt; Defense)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up (Attack = Defense)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up (Attack &lt; Defense)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up (Random &lt; 5)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up (Random &gt; 5)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $"Level Up ({specieslist[291]})", // Ninjask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $"Level Up ({specieslist[292]})", // Shedinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up (Beauty)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Used Item (Male)", // Kirlia-&gt;Gallade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Used Item (Female)", // Snorunt-&gt;Froslass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up with Held Item (Day)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up with Held Item (Night)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up with Move",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up with Party",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up Male",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up Female",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up at Electric",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up at Forest",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up at Cold",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up with 3DS Upside Down",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up with 50 Affection + MoveType",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $"{typelist[16]} Type in Party",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Overworld Rain",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up (@) at Morning",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up (@) at Night",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up Female (SetForm 1)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "UNUSED",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up Any Time on Version",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up Daytime on Version",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up Nighttime on Version",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Level Up Summit",</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evolves </t>
+  </si>
+  <si>
+    <t>from/into</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> by </t>
+  </si>
+  <si>
+    <t>gaining a level with high Friendship</t>
+  </si>
+  <si>
+    <t>gaining a level during the day</t>
+  </si>
+  <si>
+    <t>gaining a level during the night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, and being at least Level </t>
+  </si>
+  <si>
+    <t>level verbiage</t>
+  </si>
+  <si>
+    <t>gaining a level</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trading while holding a </t>
+  </si>
+  <si>
+    <t>trade for the opposite Shelmet/Karrablast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using a </t>
+  </si>
+  <si>
+    <t>gaining a level while Attack &gt; Defense</t>
+  </si>
+  <si>
+    <t>gaining a level while Attack = Defense</t>
+  </si>
+  <si>
+    <t>gaining a level while Attack &lt; Defense</t>
+  </si>
+  <si>
+    <t>gaining a level, depending on PID</t>
+  </si>
+  <si>
+    <t>gaining a level, also a Shedinja appears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">being male while using a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">being female while using a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaining a level during the day while holding a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaining a level during the night while holding a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaining a level while knowing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaining a level in the same party as a </t>
+  </si>
+  <si>
+    <t>gaining a level while being male</t>
+  </si>
+  <si>
+    <t>gaining a level while being female</t>
+  </si>
+  <si>
+    <t>gaining a level in a strong magnetic field</t>
+  </si>
+  <si>
+    <t>gaining a level in a dense forest</t>
+  </si>
+  <si>
+    <t>gaining a level in the freezing cold</t>
+  </si>
+  <si>
+    <t>gaining a level while upside down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaining a level while in the same party as a </t>
+  </si>
+  <si>
+    <t>gaining a level while it's raining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaining a level in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaining a level during the night in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaining a level during the day in </t>
+  </si>
+  <si>
+    <t>gaining a level at Mount Lanakila</t>
+  </si>
+  <si>
+    <t>UNUSED</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>pokemon</t>
+  </si>
+  <si>
+    <t>type-Pokemon</t>
+  </si>
+  <si>
+    <t>type-move</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaining a level with high Affection and knowing a </t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t>Flying</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>Psychic</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Fairy</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaining a level while having Beauty of at least </t>
+  </si>
+  <si>
+    <t>gaining a level during twilight</t>
+  </si>
+  <si>
+    <t>gaining a level in Ultra Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in Ultra Space, using a </t>
   </si>
 </sst>
 </file>
@@ -536,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0294D4B8-C0D7-4C39-998B-03D84907CA86}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -553,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -641,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="str">
-        <f>_xlfn.CONCAT("EV ",B3)</f>
+        <f t="shared" ref="B12:B17" si="0">_xlfn.CONCAT("EV ",B3)</f>
         <v>EV HP</v>
       </c>
     </row>
@@ -650,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="str">
-        <f>_xlfn.CONCAT("EV ",B4)</f>
+        <f t="shared" si="0"/>
         <v>EV Attack</v>
       </c>
     </row>
@@ -659,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="str">
-        <f>_xlfn.CONCAT("EV ",B5)</f>
+        <f t="shared" si="0"/>
         <v>EV Defense</v>
       </c>
     </row>
@@ -668,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="str">
-        <f>_xlfn.CONCAT("EV ",B6)</f>
+        <f t="shared" si="0"/>
         <v>EV Special Attack</v>
       </c>
     </row>
@@ -677,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="str">
-        <f>_xlfn.CONCAT("EV ",B7)</f>
+        <f t="shared" si="0"/>
         <v>EV Special Defense</v>
       </c>
     </row>
@@ -686,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="str">
-        <f>_xlfn.CONCAT("EV ",B8)</f>
+        <f t="shared" si="0"/>
         <v>EV Speed</v>
       </c>
     </row>
@@ -783,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -810,7 +1141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -818,7 +1149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -826,7 +1157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -834,7 +1165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -842,7 +1173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -856,12 +1187,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
         <v>32</v>
@@ -870,7 +1201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -884,44 +1215,1560 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>1</v>
       </c>
       <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>35</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>36</v>
       </c>
       <c r="D41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E390BE9-A7E6-4A8C-AB96-61998F81FF19}">
+  <dimension ref="A1:M69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="69.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="33.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G40" si="0">_xlfn.CONCAT("'",F2,"'")</f>
+        <v>'None'</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L32" si="1">_xlfn.CONCAT("'",K2,"'")</f>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A44" si="2">DEC2HEX(HEX2DEC(A2)+1,2)</f>
+        <v>01</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level with high Friendship'</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+      <c r="M3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level during the day'</v>
+      </c>
+      <c r="H4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+      <c r="M4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" t="str">
+        <f t="shared" si="2"/>
+        <v>03</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level during the night'</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+      <c r="M5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level'</v>
+      </c>
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+      <c r="M6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>'trading'</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" t="str">
+        <f t="shared" si="2"/>
+        <v>06</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>'trading while holding a '</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>'item'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" t="str">
+        <f t="shared" si="2"/>
+        <v>07</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>'trade for the opposite Shelmet/Karrablast'</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" t="str">
+        <f t="shared" si="2"/>
+        <v>08</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>'using a '</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>'item'</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" t="str">
+        <f t="shared" si="2"/>
+        <v>09</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level while Attack &gt; Defense'</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" t="str">
+        <f t="shared" si="2"/>
+        <v>0A</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level while Attack = Defense'</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" t="str">
+        <f t="shared" si="2"/>
+        <v>0B</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level while Attack &lt; Defense'</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" t="str">
+        <f t="shared" si="2"/>
+        <v>0C</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level, depending on PID'</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" t="str">
+        <f t="shared" si="2"/>
+        <v>0D</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level, depending on PID'</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" t="str">
+        <f t="shared" si="2"/>
+        <v>0E</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level, also a Shedinja appears'</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" t="str">
+        <f t="shared" si="2"/>
+        <v>0F</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level, also a Shedinja appears'</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" t="str">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level while having Beauty of at least '</v>
+      </c>
+      <c r="H18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" t="str">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>'being male while using a '</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>'item'</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>'being female while using a '</v>
+      </c>
+      <c r="H20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>'item'</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" t="str">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level during the day while holding a '</v>
+      </c>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>'item'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" t="str">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level during the night while holding a '</v>
+      </c>
+      <c r="H22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>'item'</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" t="str">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level while knowing '</v>
+      </c>
+      <c r="H23" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>'move'</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" t="str">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level in the same party as a '</v>
+      </c>
+      <c r="H24" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>'pokemon'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" t="str">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level while being male'</v>
+      </c>
+      <c r="H25" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" t="str">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level while being female'</v>
+      </c>
+      <c r="H26" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" t="str">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level in a strong magnetic field'</v>
+      </c>
+      <c r="H27" t="s">
+        <v>90</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" t="str">
+        <f t="shared" si="2"/>
+        <v>1A</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level in a dense forest'</v>
+      </c>
+      <c r="H28" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" t="str">
+        <f t="shared" si="2"/>
+        <v>1B</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level in the freezing cold'</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" t="str">
+        <f t="shared" si="2"/>
+        <v>1C</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level while upside down'</v>
+      </c>
+      <c r="H30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" t="str">
+        <f t="shared" si="2"/>
+        <v>1D</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level with high Affection and knowing a '</v>
+      </c>
+      <c r="H31" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>'type-move'</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" t="str">
+        <f t="shared" si="2"/>
+        <v>1E</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level while in the same party as a '</v>
+      </c>
+      <c r="H32" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" t="s">
+        <v>126</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v>'type-Pokemon'</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" t="str">
+        <f t="shared" si="2"/>
+        <v>1F</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level while it's raining'</v>
+      </c>
+      <c r="H33" t="s">
+        <v>90</v>
+      </c>
+      <c r="L33" t="str">
+        <f>_xlfn.CONCAT("'",K33,"'")</f>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" t="str">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level during the day'</v>
+      </c>
+      <c r="H34" t="s">
+        <v>90</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" ref="L34:L44" si="3">_xlfn.CONCAT("'",K34,"'")</f>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level during the night'</v>
+      </c>
+      <c r="H35" t="s">
+        <v>90</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="3"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level while being female'</v>
+      </c>
+      <c r="H36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="3"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>'UNUSED'</v>
+      </c>
+      <c r="H37" t="s">
+        <v>90</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="3"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" t="str">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level in '</v>
+      </c>
+      <c r="H38" t="s">
+        <v>90</v>
+      </c>
+      <c r="K38" t="s">
+        <v>129</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="3"/>
+        <v>'game'</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" t="str">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level during the day in '</v>
+      </c>
+      <c r="H39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K39" t="s">
+        <v>129</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="3"/>
+        <v>'game'</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40" t="str">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>'gaining a level during the night in '</v>
+      </c>
+      <c r="H40" t="s">
+        <v>90</v>
+      </c>
+      <c r="K40" t="s">
+        <v>129</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="3"/>
+        <v>'game'</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" t="str">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>120</v>
+      </c>
+      <c r="G41" t="str">
+        <f>_xlfn.CONCAT("'",F41,"'")</f>
+        <v>'gaining a level at Mount Lanakila'</v>
+      </c>
+      <c r="H41" t="s">
+        <v>90</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="3"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42" t="str">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" ref="G42:G44" si="4">_xlfn.CONCAT("'",F42,"'")</f>
+        <v>'gaining a level during twilight'</v>
+      </c>
+      <c r="H42" t="s">
+        <v>90</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="3"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" t="str">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="4"/>
+        <v>'gaining a level in Ultra Space'</v>
+      </c>
+      <c r="H43" t="s">
+        <v>90</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="3"/>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44" t="str">
+        <f t="shared" si="2"/>
+        <v>2A</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="4"/>
+        <v>'in Ultra Space, using a '</v>
+      </c>
+      <c r="H44" t="s">
+        <v>90</v>
+      </c>
+      <c r="K44" t="s">
+        <v>123</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="3"/>
+        <v>'item'</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="F45" t="str">
+        <f>_xlfn.TEXTJOIN(", ",TRUE,F2:F44)</f>
+        <v xml:space="preserve">None, gaining a level with high Friendship, gaining a level during the day, gaining a level during the night, gaining a level, trading, trading while holding a , trade for the opposite Shelmet/Karrablast, using a , gaining a level while Attack &gt; Defense, gaining a level while Attack = Defense, gaining a level while Attack &lt; Defense, gaining a level, depending on PID, gaining a level, depending on PID, gaining a level, also a Shedinja appears, gaining a level, also a Shedinja appears, gaining a level while having Beauty of at least , being male while using a , being female while using a , gaining a level during the day while holding a , gaining a level during the night while holding a , gaining a level while knowing , gaining a level in the same party as a , gaining a level while being male, gaining a level while being female, gaining a level in a strong magnetic field, gaining a level in a dense forest, gaining a level in the freezing cold, gaining a level while upside down, gaining a level with high Affection and knowing a , gaining a level while in the same party as a , gaining a level while it's raining, gaining a level during the day, gaining a level during the night, gaining a level while being female, UNUSED, gaining a level in , gaining a level during the day in , gaining a level during the night in , gaining a level at Mount Lanakila, gaining a level during twilight, gaining a level in Ultra Space, in Ultra Space, using a </v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" ref="G45:L45" si="5">_xlfn.TEXTJOIN(", ",TRUE,G2:G44)</f>
+        <v>'None', 'gaining a level with high Friendship', 'gaining a level during the day', 'gaining a level during the night', 'gaining a level', 'trading', 'trading while holding a ', 'trade for the opposite Shelmet/Karrablast', 'using a ', 'gaining a level while Attack &gt; Defense', 'gaining a level while Attack = Defense', 'gaining a level while Attack &lt; Defense', 'gaining a level, depending on PID', 'gaining a level, depending on PID', 'gaining a level, also a Shedinja appears', 'gaining a level, also a Shedinja appears', 'gaining a level while having Beauty of at least ', 'being male while using a ', 'being female while using a ', 'gaining a level during the day while holding a ', 'gaining a level during the night while holding a ', 'gaining a level while knowing ', 'gaining a level in the same party as a ', 'gaining a level while being male', 'gaining a level while being female', 'gaining a level in a strong magnetic field', 'gaining a level in a dense forest', 'gaining a level in the freezing cold', 'gaining a level while upside down', 'gaining a level with high Affection and knowing a ', 'gaining a level while in the same party as a ', 'gaining a level while it's raining', 'gaining a level during the day', 'gaining a level during the night', 'gaining a level while being female', 'UNUSED', 'gaining a level in ', 'gaining a level during the day in ', 'gaining a level during the night in ', 'gaining a level at Mount Lanakila', 'gaining a level during twilight', 'gaining a level in Ultra Space', 'in Ultra Space, using a '</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level , , and being at least Level </v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="5"/>
+        <v>item, item, item, item, item, item, move, pokemon, type-move, type-Pokemon, game, game, game, item</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="5"/>
+        <v>'', '', '', '', '', '', 'item', '', 'item', '', '', '', '', '', '', '', '', 'item', 'item', 'item', 'item', 'move', 'pokemon', '', '', '', '', '', '', 'type-move', 'type-Pokemon', '', '', '', '', '', 'game', 'game', 'game', '', '', '', 'item'</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" ref="E51:E68" si="6">_xlfn.CONCAT("'",D51,"'")</f>
+        <v>'Normal'</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="6"/>
+        <v>'Fighting'</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="6"/>
+        <v>'Flying'</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="6"/>
+        <v>'Poison'</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="6"/>
+        <v>'Ground'</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="6"/>
+        <v>'Rock'</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D57" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="6"/>
+        <v>'Bug'</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D58" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="6"/>
+        <v>'Ghost'</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D59" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="6"/>
+        <v>'Steel'</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D60" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="6"/>
+        <v>'Fire'</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D61" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="6"/>
+        <v>'Water'</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D62" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="6"/>
+        <v>'Grass'</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D63" t="s">
+        <v>142</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="6"/>
+        <v>'Electric'</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D64" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="6"/>
+        <v>'Psychic'</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D65" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="6"/>
+        <v>'Ice'</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D66" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="6"/>
+        <v>'Dragon'</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D67" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="6"/>
+        <v>'Dark'</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D68" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="6"/>
+        <v>'Fairy'</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E69" t="str">
+        <f>_xlfn.TEXTJOIN(", ",FALSE,E51:E68)</f>
+        <v>'Normal', 'Fighting', 'Flying', 'Poison', 'Ground', 'Rock', 'Bug', 'Ghost', 'Steel', 'Fire', 'Water', 'Grass', 'Electric', 'Psychic', 'Ice', 'Dragon', 'Dark', 'Fairy'</v>
       </c>
     </row>
   </sheetData>

--- a/Layout of Report.xlsx
+++ b/Layout of Report.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Export-Pokedata-To-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C455568F-2F4F-4487-9818-D4277F89532C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1FE04E-28CF-4761-9EC4-E6F59E6B996A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{CA98834B-DD3D-4A87-8EBF-4385F7D6C6A8}"/>
+    <workbookView xWindow="-14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{CA98834B-DD3D-4A87-8EBF-4385F7D6C6A8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pokemon" sheetId="1" r:id="rId1"/>
+    <sheet name="Move" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="114">
   <si>
     <t>Base Index</t>
   </si>
@@ -165,6 +166,219 @@
   </si>
   <si>
     <t>Full Description</t>
+  </si>
+  <si>
+    <t>Move Index</t>
+  </si>
+  <si>
+    <t>Move Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Base power</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Min Hits</t>
+  </si>
+  <si>
+    <t>Max Hits</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Chance to inflict Status</t>
+  </si>
+  <si>
+    <t>Min Effect turns</t>
+  </si>
+  <si>
+    <t>Max Efffect turns</t>
+  </si>
+  <si>
+    <t>Crit stage</t>
+  </si>
+  <si>
+    <t>Flinch %</t>
+  </si>
+  <si>
+    <t>Heal %</t>
+  </si>
+  <si>
+    <t>Drain/Recoil %</t>
+  </si>
+  <si>
+    <t>Targeting</t>
+  </si>
+  <si>
+    <t>Stat A + X</t>
+  </si>
+  <si>
+    <t>Stat B + Y</t>
+  </si>
+  <si>
+    <t>Stat C + Z</t>
+  </si>
+  <si>
+    <t>Chance of Stat change (first one is only one that matters)</t>
+  </si>
+  <si>
+    <t>Z-Move Power</t>
+  </si>
+  <si>
+    <t>Z-move extra effect</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Ignores Protect</t>
+  </si>
+  <si>
+    <t>Magic Bounce/Coat</t>
+  </si>
+  <si>
+    <t>Snatchable</t>
+  </si>
+  <si>
+    <t>Mirror Moveable</t>
+  </si>
+  <si>
+    <t>Punch</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Gravity Disables</t>
+  </si>
+  <si>
+    <t>Defrosts User</t>
+  </si>
+  <si>
+    <t>Healing</t>
+  </si>
+  <si>
+    <t>Ignores Substitute</t>
+  </si>
+  <si>
+    <t>Fails Sky Battle</t>
+  </si>
+  <si>
+    <t>Animates Ally</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Recharge</t>
+  </si>
+  <si>
+    <t>Any Target Triple</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Slicing</t>
+  </si>
+  <si>
+    <t>Biting</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>Mega Launcher</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>0F</t>
+  </si>
+  <si>
+    <t>0E</t>
+  </si>
+  <si>
+    <t>0D</t>
+  </si>
+  <si>
+    <t>0C</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -200,8 +414,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,7 +753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0294D4B8-C0D7-4C39-998B-03D84907CA86}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="A1:D42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -924,4 +1141,574 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA0F5ED-B031-470F-BF83-6B74C16E7294}">
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="str">
+        <f>_xlfn.CONCAT("'",B23,"'")</f>
+        <v>'Contact'</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" ref="F24:F45" si="0">_xlfn.CONCAT("'",B24,"'")</f>
+        <v>'Charge'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>'Recharge'</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>'Ignores Protect'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Magic Bounce/Coat'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>'Snatchable'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>'Mirror Moveable'</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>'Punch'</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>'Sound'</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>'Gravity Disables'</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>'Defrosts User'</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>'Any Target Triple'</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>'Healing'</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>'Ignores Substitute'</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>'Fails Sky Battle'</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>'Animates Ally'</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>'Dance'</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>'Slicing'</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>'Biting'</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>'Bullet'</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>'Mega Launcher'</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>'Wind'</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>'Light'</v>
+      </c>
+      <c r="G45" t="str">
+        <f>_xlfn.TEXTJOIN(", ",FALSE,F23:F45)</f>
+        <v>'Contact', 'Charge', 'Recharge', 'Ignores Protect', 'Magic Bounce/Coat', 'Snatchable', 'Mirror Moveable', 'Punch', 'Sound', 'Gravity Disables', 'Defrosts User', 'Any Target Triple', 'Healing', 'Ignores Substitute', 'Fails Sky Battle', 'Animates Ally', 'Dance', 'Slicing', 'Biting', 'Bullet', 'Mega Launcher', 'Wind', 'Light'</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>